--- a/Waho/ImportData/Products.xlsx
+++ b/Waho/ImportData/Products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Tên sản phẩm</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>active</t>
+  </si>
+  <si>
+    <t>số lượng</t>
   </si>
   <si>
     <t>Áo Khoác hồng</t>
@@ -107,7 +110,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,14 +120,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,24 +203,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,14 +213,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -178,45 +228,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,37 +251,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,13 +272,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,169 +398,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,17 +466,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,35 +505,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,8 +538,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,151 +554,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,10 +1034,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -1060,7 +1056,7 @@
     <col min="16" max="16" width="12.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,10 +1108,13 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>300000</v>
@@ -1136,16 +1135,16 @@
         <v>45046</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1">
         <v>400</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2">
         <v>5</v>
@@ -1154,7 +1153,7 @@
         <v>300</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O2">
         <v>23</v>
@@ -1165,10 +1164,13 @@
       <c r="Q2">
         <v>1</v>
       </c>
+      <c r="R2">
+        <v>200</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>300000</v>
@@ -1189,16 +1191,16 @@
         <v>44968</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1">
         <v>400</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3">
         <v>5</v>
@@ -1207,7 +1209,7 @@
         <v>300</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O3">
         <v>23</v>
@@ -1218,10 +1220,13 @@
       <c r="Q3">
         <v>1</v>
       </c>
+      <c r="R3">
+        <v>200</v>
+      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>100000</v>
@@ -1242,16 +1247,16 @@
         <v>45046</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1">
         <v>200</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -1260,7 +1265,7 @@
         <v>200</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4">
         <v>2</v>
@@ -1271,10 +1276,13 @@
       <c r="Q4">
         <v>1</v>
       </c>
+      <c r="R4">
+        <v>200</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>1000</v>
@@ -1295,16 +1303,16 @@
         <v>44968</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1">
         <v>200</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -1313,7 +1321,7 @@
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O5">
         <v>2</v>
@@ -1323,6 +1331,9 @@
       </c>
       <c r="Q5">
         <v>1</v>
+      </c>
+      <c r="R5">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
